--- a/Entreprenørskap/Kontaktlogg.xlsx
+++ b/Entreprenørskap/Kontaktlogg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/ingrisiv_ntnu_no/Documents/TIØ3200 Ingeniørfaglig systemtenkning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIOE4252-Tekled\Entreprenørskap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC351D8C-6D0F-4156-B07B-D79B7D8D089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C8E28-3007-4B8E-8220-7FD83B693685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-13170" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Navn</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">Pettersen fortalte mer om bransjen "X" og hva de synes hadde vært utfordringer. Blant annet at det var mange kunder som kom med tilbakemeldinger om "X", og han mente dette var noe som kunne løses på "X" måte. Pettersen kunne bekrefte "X" antagelser og sa ..... når jeg spurte om "X". Etter samtalen har vi bestemt oss for å kontakte "X" og "X" ut i fra hva Pettersen anbefalte. </t>
+  </si>
+  <si>
+    <t>Ola Nordman</t>
+  </si>
+  <si>
+    <t>Ola Nordman AS</t>
+  </si>
+  <si>
+    <t>Kolbjørn Bølgen</t>
   </si>
 </sst>
 </file>
@@ -354,10 +363,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.42578125" style="1"/>
     <col min="3" max="3" width="29.28515625" style="1" customWidth="1"/>
@@ -462,10 +471,18 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12345678</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -478,7 +495,12 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
+        <v>45352</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">

--- a/Entreprenørskap/Kontaktlogg.xlsx
+++ b/Entreprenørskap/Kontaktlogg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIOE4252-Tekled\Entreprenørskap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C8E28-3007-4B8E-8220-7FD83B693685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8922B5A9-359A-4D4A-87E3-0071E5F70A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -484,7 +484,12 @@
         <v>12345678</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7">
+        <v>45352</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -495,12 +500,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <v>45352</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">

--- a/Entreprenørskap/Kontaktlogg.xlsx
+++ b/Entreprenørskap/Kontaktlogg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIOE4252-Tekled\Entreprenørskap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8922B5A9-359A-4D4A-87E3-0071E5F70A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C1382B-E665-44C9-BB5F-071959AF2A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Navn</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Kolbjørn Bølgen</t>
+  </si>
+  <si>
+    <t>Han Mente at dette var en brilliant ide som kan ende opp med å bli kjøpt opp av OpenAI</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -483,7 +486,9 @@
       <c r="E6" s="4">
         <v>12345678</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
       </c>

--- a/Entreprenørskap/Kontaktlogg.xlsx
+++ b/Entreprenørskap/Kontaktlogg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIOE4252-Tekled\Entreprenørskap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C1382B-E665-44C9-BB5F-071959AF2A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670EB745-A569-43AF-B14A-CE2577B332FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
     <t>Kolbjørn Bølgen</t>
   </si>
   <si>
-    <t>Han Mente at dette var en brilliant ide som kan ende opp med å bli kjøpt opp av OpenAI</t>
+    <t>Han Mente at dette var en brilliant ide som kan ende opp med å bli kjøpt opp av OpenAI eller Google</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
